--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD05D27-E542-4310-A568-69791B5C7952}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1CC35A-A528-491B-BB36-83E9C996BDFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9024" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Restaurant_Cafe" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>SCENES</t>
   </si>
   <si>
-    <t>Panoramic photo of Cooler</t>
-  </si>
-  <si>
     <t>Cooler fullness</t>
   </si>
   <si>
@@ -682,6 +676,12 @@
   </si>
   <si>
     <t>Menu, Menu Insert, Other Menu Activation, SS_Menu, SS_Menu Insert, SS_Other Menu Activation</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
   </si>
 </sst>
 </file>
@@ -1174,9 +1174,9 @@
   <dimension ref="A1:AMK45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,12 +1520,12 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE4" s="6">
         <v>5.0021000000000003E-2</v>
@@ -1561,10 +1561,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>52</v>
@@ -1576,7 +1576,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="5">
         <v>90375408</v>
@@ -1600,12 +1600,12 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE5" s="6">
         <v>5.0021000000000003E-2</v>
@@ -1641,10 +1641,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>52</v>
@@ -1656,7 +1656,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="5">
         <v>87303377</v>
@@ -1680,12 +1680,12 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="6">
         <v>4.9993000000000003E-2</v>
@@ -1721,10 +1721,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>52</v>
@@ -1736,7 +1736,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="5">
         <v>40822549</v>
@@ -1760,12 +1760,12 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE7" s="6">
         <v>4.9993000000000003E-2</v>
@@ -1801,10 +1801,10 @@
         <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>52</v>
@@ -1816,7 +1816,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="5">
         <v>40822341</v>
@@ -1840,12 +1840,12 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE8" s="6">
         <v>4.9993000000000003E-2</v>
@@ -1881,10 +1881,10 @@
         <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>52</v>
@@ -1896,7 +1896,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="5">
         <v>50112135</v>
@@ -1920,12 +1920,12 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE9" s="6">
         <v>1.7989999999999999E-2</v>
@@ -1961,10 +1961,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>52</v>
@@ -1976,7 +1976,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="5">
         <v>87126860</v>
@@ -2000,12 +2000,12 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE10" s="6">
         <v>1.7989999999999999E-2</v>
@@ -2038,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>47</v>
@@ -2086,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="AK11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL11" s="4">
         <v>300</v>
@@ -2106,13 +2106,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>52</v>
@@ -2124,10 +2124,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2148,12 +2148,12 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE12" s="6">
         <v>5.0055000000000002E-2</v>
@@ -2186,13 +2186,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>52</v>
@@ -2204,10 +2204,10 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2228,12 +2228,12 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE13" s="6">
         <v>2.3990000000000001E-2</v>
@@ -2266,13 +2266,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>47</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="AK14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL14" s="4">
         <v>300</v>
@@ -2334,13 +2334,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>52</v>
@@ -2352,7 +2352,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="5">
         <v>4650075420386</v>
@@ -2376,12 +2376,12 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE15" s="6">
         <v>4.999E-2</v>
@@ -2414,13 +2414,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>52</v>
@@ -2432,7 +2432,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" s="5">
         <v>4650075420362</v>
@@ -2456,12 +2456,12 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE16" s="6">
         <v>2.3989E-2</v>
@@ -2494,13 +2494,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>52</v>
@@ -2512,7 +2512,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" s="5">
         <v>4650075420423</v>
@@ -2536,12 +2536,12 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE17" s="6">
         <v>2.3989E-2</v>
@@ -2574,16 +2574,16 @@
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
@@ -2608,12 +2608,12 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE18" s="6">
         <v>2.3989E-2</v>
@@ -2628,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="AK18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL18" s="4">
         <v>12</v>
@@ -2648,13 +2648,13 @@
         <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>52</v>
@@ -2666,7 +2666,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N19" s="5">
         <v>4650075420409</v>
@@ -2690,12 +2690,12 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE19" s="6"/>
       <c r="AF19" s="4"/>
@@ -2726,13 +2726,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>52</v>
@@ -2744,7 +2744,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N20" s="5">
         <v>4650075420508</v>
@@ -2768,12 +2768,12 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE20" s="6"/>
       <c r="AF20" s="4"/>
@@ -2804,13 +2804,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>52</v>
@@ -2822,7 +2822,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N21" s="5">
         <v>4650075420485</v>
@@ -2846,12 +2846,12 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="4"/>
@@ -2882,13 +2882,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>52</v>
@@ -2900,7 +2900,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N22" s="5">
         <v>4650075420447</v>
@@ -2924,12 +2924,12 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="4"/>
@@ -2960,13 +2960,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>47</v>
@@ -3028,13 +3028,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>52</v>
@@ -3046,7 +3046,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N24" s="5">
         <v>5449000148056</v>
@@ -3070,12 +3070,12 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE24" s="6">
         <v>1.7996999999999999E-2</v>
@@ -3109,10 +3109,10 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>40</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="AK25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL25" s="4"/>
     </row>
@@ -3168,13 +3168,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>52</v>
@@ -3186,38 +3186,38 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE26" s="6">
         <v>0.16666600000000001</v>
@@ -3250,16 +3250,16 @@
         <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
@@ -3282,16 +3282,16 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE27" s="6">
         <v>8.3333000000000004E-2</v>
@@ -3326,13 +3326,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>52</v>
@@ -3344,38 +3344,38 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>53</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="4"/>
@@ -3406,16 +3406,16 @@
         <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="H29" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4">
@@ -3438,16 +3438,16 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE29" s="6">
         <v>8.3333000000000004E-2</v>
@@ -3462,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="AK29" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL29" s="4">
         <v>400</v>
@@ -3482,13 +3482,13 @@
         <v>40</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>52</v>
@@ -3501,10 +3501,10 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -3513,23 +3513,23 @@
         <v>53</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE30" s="6"/>
       <c r="AF30" s="4"/>
@@ -3557,19 +3557,19 @@
         <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="H31" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4">
@@ -3597,7 +3597,7 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE31" s="6">
         <v>0.12</v>
@@ -3629,16 +3629,16 @@
         <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="F32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>52</v>
@@ -3651,37 +3651,37 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="R32" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="4"/>
@@ -3713,10 +3713,10 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>40</v>
@@ -3773,10 +3773,10 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>40</v>
@@ -3831,19 +3831,19 @@
         <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
@@ -3864,14 +3864,14 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE35" s="6">
         <v>4.6668000000000001E-2</v>
@@ -3886,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="AK35" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AL35" s="4">
         <v>312</v>
@@ -3903,19 +3903,19 @@
         <v>39</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4">
@@ -3933,7 +3933,7 @@
         <v>53</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -3943,13 +3943,13 @@
         <v>55</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE36" s="6"/>
       <c r="AF36" s="4"/>
@@ -3977,19 +3977,19 @@
         <v>39</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -3998,10 +3998,10 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -4011,27 +4011,27 @@
         <v>53</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE37" s="6"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AI37" s="4">
         <v>40</v>
@@ -4055,19 +4055,19 @@
         <v>39</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4">
@@ -4076,10 +4076,10 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -4089,27 +4089,27 @@
         <v>53</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE38" s="6"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AI38" s="4">
         <v>41</v>
@@ -4133,22 +4133,22 @@
         <v>39</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -4161,7 +4161,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL39" s="4"/>
     </row>
@@ -4197,31 +4197,31 @@
         <v>39</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -4229,7 +4229,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
@@ -4265,31 +4265,31 @@
         <v>39</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -4297,7 +4297,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
@@ -4333,31 +4333,31 @@
         <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -4365,7 +4365,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -4401,31 +4401,31 @@
         <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -4433,7 +4433,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AL43" s="4"/>
     </row>
@@ -4469,31 +4469,31 @@
         <v>39</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -4501,7 +4501,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL44" s="4"/>
     </row>
@@ -4537,20 +4537,20 @@
         <v>39</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -4563,7 +4563,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
@@ -4621,10 +4621,10 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
         <v>33</v>
@@ -4633,18 +4633,18 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" t="s">
         <v>196</v>
-      </c>
-      <c r="L1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa RestCafeTea.xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1CC35A-A528-491B-BB36-83E9C996BDFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E894D240-9565-4E9B-9BFD-B3DE9C4523A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Restaurant_Cafe" sheetId="1" r:id="rId1"/>
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="__" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$45</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AL$1</definedName>
+    <definedName name="_" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="__" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$45</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">'HoReCa Restaurant_Cafe'!$A$1:$AN$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="210">
   <si>
     <t>Sorting</t>
   </si>
@@ -682,6 +682,24 @@
   </si>
   <si>
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -692,7 +710,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -715,16 +733,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -747,12 +778,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,6 +832,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,58 +1223,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK45"/>
+  <dimension ref="A1:AMM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Z37" sqref="Z37"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="8"/>
+    <col min="1" max="1" width="13.28515625" style="8"/>
     <col min="2" max="2" width="14" style="8"/>
-    <col min="3" max="3" width="37.88671875" style="8"/>
+    <col min="3" max="3" width="37.85546875" style="8"/>
     <col min="4" max="5" width="14" style="8"/>
-    <col min="6" max="6" width="71.88671875" style="8"/>
-    <col min="7" max="7" width="72.44140625" style="8"/>
-    <col min="8" max="8" width="34.21875" style="8"/>
-    <col min="9" max="9" width="19.6640625" style="8"/>
-    <col min="10" max="10" width="11.5546875" style="8"/>
-    <col min="11" max="11" width="16.88671875" style="8"/>
-    <col min="12" max="12" width="17.109375" style="8"/>
-    <col min="13" max="13" width="41.44140625" style="8"/>
-    <col min="14" max="14" width="58.21875" style="11"/>
-    <col min="15" max="15" width="23.109375" style="8"/>
-    <col min="16" max="16" width="19.5546875" style="8"/>
-    <col min="17" max="17" width="58.21875" style="8"/>
-    <col min="18" max="18" width="27.44140625" style="8"/>
-    <col min="19" max="19" width="21.88671875" style="8"/>
-    <col min="20" max="20" width="14.5546875" style="8"/>
-    <col min="21" max="21" width="9.5546875" style="8"/>
-    <col min="22" max="22" width="17.109375" style="8"/>
-    <col min="23" max="23" width="21.109375" style="8"/>
-    <col min="24" max="24" width="26.5546875" style="8"/>
-    <col min="25" max="25" width="26.109375" style="8"/>
-    <col min="26" max="26" width="44.5546875" style="8"/>
-    <col min="27" max="27" width="23.88671875" style="8"/>
-    <col min="28" max="28" width="29.6640625" style="8"/>
-    <col min="29" max="29" width="30.109375" style="8"/>
-    <col min="30" max="30" width="19.88671875" style="8"/>
-    <col min="31" max="31" width="17" style="12"/>
-    <col min="32" max="32" width="16.33203125" style="8"/>
-    <col min="33" max="33" width="16.5546875" style="8"/>
-    <col min="34" max="34" width="35.5546875" style="8"/>
-    <col min="35" max="35" width="11.109375" style="8"/>
-    <col min="36" max="36" width="10.88671875" style="8"/>
-    <col min="37" max="37" width="24.21875" style="11"/>
-    <col min="38" max="38" width="11.88671875" style="8"/>
-    <col min="39" max="1025" width="9.5546875" style="8"/>
-    <col min="1026" max="16384" width="8.88671875" style="9"/>
+    <col min="6" max="6" width="71.85546875" style="8"/>
+    <col min="7" max="7" width="72.42578125" style="8"/>
+    <col min="8" max="8" width="34.28515625" style="8"/>
+    <col min="9" max="9" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="8"/>
+    <col min="12" max="12" width="11.5703125" style="8"/>
+    <col min="13" max="13" width="16.85546875" style="8"/>
+    <col min="14" max="14" width="17.140625" style="8"/>
+    <col min="15" max="15" width="41.42578125" style="8"/>
+    <col min="16" max="16" width="58.28515625" style="11"/>
+    <col min="17" max="17" width="23.140625" style="8"/>
+    <col min="18" max="18" width="19.5703125" style="8"/>
+    <col min="19" max="19" width="58.28515625" style="8"/>
+    <col min="20" max="20" width="27.42578125" style="8"/>
+    <col min="21" max="21" width="21.85546875" style="8"/>
+    <col min="22" max="22" width="14.5703125" style="8"/>
+    <col min="23" max="23" width="9.5703125" style="8"/>
+    <col min="24" max="24" width="17.140625" style="8"/>
+    <col min="25" max="25" width="21.140625" style="8"/>
+    <col min="26" max="26" width="26.5703125" style="8"/>
+    <col min="27" max="27" width="26.140625" style="8"/>
+    <col min="28" max="28" width="44.5703125" style="8"/>
+    <col min="29" max="29" width="23.85546875" style="8"/>
+    <col min="30" max="30" width="29.7109375" style="8"/>
+    <col min="31" max="31" width="30.140625" style="8"/>
+    <col min="32" max="32" width="19.85546875" style="8"/>
+    <col min="33" max="33" width="17" style="12"/>
+    <col min="34" max="34" width="16.28515625" style="8"/>
+    <col min="35" max="35" width="16.5703125" style="8"/>
+    <col min="36" max="36" width="35.5703125" style="8"/>
+    <col min="37" max="37" width="11.140625" style="8"/>
+    <col min="38" max="38" width="10.85546875" style="8"/>
+    <col min="39" max="39" width="24.28515625" style="11"/>
+    <col min="40" max="40" width="11.85546875" style="8"/>
+    <col min="41" max="1027" width="9.5703125" style="8"/>
+    <col min="1028" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,98 +1301,104 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1366,9 +1426,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -1383,22 +1443,24 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="6"/>
+      <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
+      <c r="AG2" s="6"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="4">
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4">
         <v>300</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AL2" s="4">
         <v>1</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="4"/>
+      <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1423,14 +1485,18 @@
       <c r="H3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1444,27 +1510,29 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
+      <c r="AG3" s="6"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="4">
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4">
         <v>1</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AL3" s="4">
         <v>2</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AN3" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1490,61 +1558,63 @@
         <v>52</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="5">
+      <c r="P4" s="5">
         <v>50112128</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AG4" s="6">
         <v>5.0021000000000003E-2</v>
       </c>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="4">
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4">
         <v>2</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AL4" s="4">
         <v>3</v>
       </c>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="4">
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1570,61 +1640,63 @@
         <v>52</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="5">
+      <c r="P5" s="5">
         <v>90375408</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AG5" s="6">
         <v>5.0021000000000003E-2</v>
       </c>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="4">
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4">
         <v>4</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AL5" s="4">
         <v>3</v>
       </c>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="4">
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1650,61 +1722,63 @@
         <v>52</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="5">
+      <c r="P6" s="5">
         <v>87303377</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AG6" s="6">
         <v>4.9993000000000003E-2</v>
       </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="4">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4">
         <v>803</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AL6" s="4">
         <v>3</v>
       </c>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="4">
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1730,61 +1804,63 @@
         <v>52</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="5">
+      <c r="P7" s="5">
         <v>40822549</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AG7" s="6">
         <v>4.9993000000000003E-2</v>
       </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="4">
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4">
         <v>5</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AL7" s="4">
         <v>3</v>
       </c>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="4">
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1810,61 +1886,63 @@
         <v>52</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="5">
+      <c r="P8" s="5">
         <v>40822341</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AG8" s="6">
         <v>4.9993000000000003E-2</v>
       </c>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="4">
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4">
         <v>3</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AL8" s="4">
         <v>3</v>
       </c>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="4">
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1890,61 +1968,63 @@
         <v>52</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="5">
+      <c r="P9" s="5">
         <v>50112135</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4" t="s">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4" t="s">
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AG9" s="6">
         <v>1.7989999999999999E-2</v>
       </c>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
-      <c r="AI9" s="4">
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4">
         <v>804</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AL9" s="4">
         <v>3</v>
       </c>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="4">
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1970,61 +2050,63 @@
         <v>52</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="5">
+      <c r="P10" s="5">
         <v>87126860</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="4" t="s">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4" t="s">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4" t="s">
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AG10" s="6">
         <v>1.7989999999999999E-2</v>
       </c>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="4">
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4">
         <v>805</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AL10" s="4">
         <v>3</v>
       </c>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="4">
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>13</v>
       </c>
@@ -2049,14 +2131,18 @@
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -2064,35 +2150,37 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="4" t="s">
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="AG11" s="6"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="4">
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4">
         <v>9</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AL11" s="4">
         <v>2</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AM11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AN11" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>14</v>
       </c>
@@ -2118,61 +2206,63 @@
         <v>52</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4" t="s">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4" t="s">
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AG12" s="6">
         <v>5.0055000000000002E-2</v>
       </c>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-      <c r="AI12" s="4">
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4">
         <v>801</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AL12" s="4">
         <v>3</v>
       </c>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="4">
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>15</v>
       </c>
@@ -2198,61 +2288,63 @@
         <v>52</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="4" t="s">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4" t="s">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4" t="s">
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AG13" s="6">
         <v>2.3990000000000001E-2</v>
       </c>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="4">
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4">
         <v>802</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AL13" s="4">
         <v>3</v>
       </c>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="4">
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>18</v>
       </c>
@@ -2277,14 +2369,18 @@
       <c r="H14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2292,35 +2388,37 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="4" t="s">
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
+      <c r="AG14" s="6"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="4">
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4">
         <v>12</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AL14" s="4">
         <v>2</v>
       </c>
-      <c r="AK14" s="7" t="s">
+      <c r="AM14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AN14" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>19</v>
       </c>
@@ -2346,61 +2444,63 @@
         <v>52</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="5">
+      <c r="P15" s="5">
         <v>4650075420386</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4" t="s">
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4" t="s">
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AG15" s="6">
         <v>4.999E-2</v>
       </c>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="4">
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4">
         <v>13</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AL15" s="4">
         <v>3</v>
       </c>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="4">
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>20</v>
       </c>
@@ -2426,61 +2526,63 @@
         <v>52</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="5">
+      <c r="P16" s="5">
         <v>4650075420362</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4" t="s">
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AG16" s="6">
         <v>2.3989E-2</v>
       </c>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-      <c r="AI16" s="4">
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4">
         <v>14</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AL16" s="4">
         <v>3</v>
       </c>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="4">
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>21</v>
       </c>
@@ -2506,61 +2608,63 @@
         <v>52</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N17" s="5">
+      <c r="P17" s="5">
         <v>4650075420423</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4" t="s">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4" t="s">
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AG17" s="6">
         <v>2.3989E-2</v>
       </c>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="4">
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4">
         <v>18</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AL17" s="4">
         <v>3</v>
       </c>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="4">
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>22</v>
       </c>
@@ -2586,55 +2690,57 @@
         <v>93</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-      <c r="AA18" s="4" t="s">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4" t="s">
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AG18" s="6">
         <v>2.3989E-2</v>
       </c>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
-      <c r="AI18" s="4">
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4">
         <v>16</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AL18" s="4">
         <v>3</v>
       </c>
-      <c r="AK18" s="7" t="s">
+      <c r="AM18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AN18" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>23</v>
       </c>
@@ -2660,59 +2766,61 @@
         <v>52</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="5">
+      <c r="P19" s="5">
         <v>4650075420409</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="4" t="s">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4" t="s">
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4" t="s">
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
+      <c r="AG19" s="6"/>
       <c r="AH19" s="4"/>
-      <c r="AI19" s="4">
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4">
         <v>15</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AL19" s="4">
         <v>4</v>
       </c>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="4">
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>24</v>
       </c>
@@ -2738,59 +2846,61 @@
         <v>52</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N20" s="5">
+      <c r="P20" s="5">
         <v>4650075420508</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="V20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4" t="s">
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4" t="s">
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
+      <c r="AG20" s="6"/>
       <c r="AH20" s="4"/>
-      <c r="AI20" s="4">
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4">
         <v>17</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AL20" s="4">
         <v>4</v>
       </c>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="4">
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>25</v>
       </c>
@@ -2816,59 +2926,61 @@
         <v>52</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>1</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="5">
+      <c r="P21" s="5">
         <v>4650075420485</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="V21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="4" t="s">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4" t="s">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4" t="s">
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
+      <c r="AG21" s="6"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4">
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4">
         <v>19</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AL21" s="4">
         <v>4</v>
       </c>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="4">
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>26</v>
       </c>
@@ -2894,59 +3006,61 @@
         <v>52</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="5">
+      <c r="P22" s="5">
         <v>4650075420447</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4" t="s">
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
+      <c r="AG22" s="6"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="4">
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4">
         <v>20</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AL22" s="4">
         <v>4</v>
       </c>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="4">
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>27</v>
       </c>
@@ -2971,14 +3085,18 @@
       <c r="H23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -2986,35 +3104,37 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="4" t="s">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="4" t="s">
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="6"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="4">
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4">
         <v>21</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AL23" s="4">
         <v>2</v>
       </c>
-      <c r="AK23" s="5">
+      <c r="AM23" s="5">
         <v>806</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AN23" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>28</v>
       </c>
@@ -3040,61 +3160,63 @@
         <v>52</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N24" s="5">
+      <c r="P24" s="5">
         <v>5449000148056</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="V24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="4" t="s">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4" t="s">
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4" t="s">
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE24" s="6">
+      <c r="AG24" s="6">
         <v>1.7996999999999999E-2</v>
       </c>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="4">
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4">
         <v>806</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AL24" s="4">
         <v>3</v>
       </c>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="4">
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>30</v>
       </c>
@@ -3122,9 +3244,9 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -3139,22 +3261,24 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="6"/>
+      <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="AG25" s="6"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="4">
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4">
         <v>400</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AL25" s="4">
         <v>1</v>
       </c>
-      <c r="AK25" s="7" t="s">
+      <c r="AM25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AL25" s="4"/>
+      <c r="AN25" s="4"/>
     </row>
-    <row r="26" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>31</v>
       </c>
@@ -3180,63 +3304,65 @@
         <v>52</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="P26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="V26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4" t="s">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AB26" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="4" t="s">
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AG26" s="6">
         <v>0.16666600000000001</v>
       </c>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="4">
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4">
         <v>23</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AL26" s="4">
         <v>2</v>
       </c>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="4">
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>32</v>
       </c>
@@ -3261,58 +3387,60 @@
       <c r="H27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="4" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="4" t="s">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z27" s="4" t="s">
+      <c r="AB27" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="4" t="s">
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE27" s="6">
+      <c r="AG27" s="6">
         <v>8.3333000000000004E-2</v>
       </c>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="4">
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4">
         <v>24</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AL27" s="4">
         <v>2</v>
       </c>
-      <c r="AK27" s="5">
+      <c r="AM27" s="5">
         <v>25</v>
       </c>
-      <c r="AL27" s="4">
+      <c r="AN27" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>33</v>
       </c>
@@ -3338,61 +3466,63 @@
         <v>52</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
         <v>3</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="P28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="V28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="4" t="s">
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="AB28" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="4" t="s">
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
+      <c r="AG28" s="6"/>
       <c r="AH28" s="4"/>
-      <c r="AI28" s="4">
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4">
         <v>25</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AL28" s="4">
         <v>3</v>
       </c>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="4">
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>34</v>
       </c>
@@ -3417,58 +3547,60 @@
       <c r="H29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
         <v>1</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="4" t="s">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z29" s="4" t="s">
+      <c r="AB29" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4" t="s">
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE29" s="6">
+      <c r="AG29" s="6">
         <v>8.3333000000000004E-2</v>
       </c>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
-      <c r="AI29" s="4">
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4">
         <v>26</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AL29" s="4">
         <v>2</v>
       </c>
-      <c r="AK29" s="7" t="s">
+      <c r="AM29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AL29" s="4">
+      <c r="AN29" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>35</v>
       </c>
@@ -3494,59 +3626,61 @@
         <v>52</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
         <v>1</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="V30" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="4" t="s">
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AB30" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="4" t="s">
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
+      <c r="AG30" s="6"/>
       <c r="AH30" s="4"/>
-      <c r="AI30" s="4">
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4">
         <v>27</v>
       </c>
-      <c r="AJ30" s="4">
+      <c r="AL30" s="4">
         <v>3</v>
       </c>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="4">
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>37</v>
       </c>
@@ -3571,23 +3705,23 @@
       <c r="H31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
         <v>1</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="4" t="s">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -3596,29 +3730,31 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="4" t="s">
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AG31" s="6">
         <v>0.12</v>
       </c>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
-      <c r="AI31" s="4">
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4">
         <v>29</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AL31" s="4">
         <v>2</v>
       </c>
-      <c r="AK31" s="5">
+      <c r="AM31" s="5">
         <v>900</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AN31" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>38</v>
       </c>
@@ -3644,61 +3780,63 @@
         <v>52</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
         <v>1</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="10" t="s">
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="T32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="U32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="V32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="4" t="s">
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Z32" s="4" t="s">
+      <c r="AB32" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4" t="s">
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
+      <c r="AG32" s="6"/>
       <c r="AH32" s="4"/>
-      <c r="AI32" s="4">
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4">
         <v>900</v>
       </c>
-      <c r="AJ32" s="4">
+      <c r="AL32" s="4">
         <v>3</v>
       </c>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="4">
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>42</v>
       </c>
@@ -3726,9 +3864,9 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="5"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="P33" s="5"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
@@ -3743,22 +3881,24 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
-      <c r="AE33" s="6"/>
+      <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
+      <c r="AG33" s="6"/>
       <c r="AH33" s="4"/>
-      <c r="AI33" s="4">
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4">
         <v>310</v>
       </c>
-      <c r="AJ33" s="4">
+      <c r="AL33" s="4">
         <v>1</v>
       </c>
-      <c r="AK33" s="5">
+      <c r="AM33" s="5">
         <v>312</v>
       </c>
-      <c r="AL33" s="4"/>
+      <c r="AN33" s="4"/>
     </row>
-    <row r="34" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43</v>
       </c>
@@ -3786,9 +3926,9 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="5"/>
+      <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="P34" s="5"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -3803,24 +3943,26 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
-      <c r="AE34" s="6"/>
+      <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
+      <c r="AG34" s="6"/>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="4">
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4">
         <v>312</v>
       </c>
-      <c r="AJ34" s="4">
+      <c r="AL34" s="4">
         <v>1</v>
       </c>
-      <c r="AK34" s="5">
-        <v>38</v>
-      </c>
-      <c r="AL34" s="4">
+      <c r="AM34" s="5">
+        <v>38</v>
+      </c>
+      <c r="AN34" s="4">
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44</v>
       </c>
@@ -3846,15 +3988,15 @@
         <v>146</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="5"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="P35" s="5"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
@@ -3863,36 +4005,38 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="4" t="s">
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="4" t="s">
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE35" s="6">
+      <c r="AG35" s="6">
         <v>4.6668000000000001E-2</v>
       </c>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
-      <c r="AI35" s="4">
-        <v>38</v>
-      </c>
-      <c r="AJ35" s="4">
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4">
+        <v>38</v>
+      </c>
+      <c r="AL35" s="4">
         <v>2</v>
       </c>
-      <c r="AK35" s="7" t="s">
+      <c r="AM35" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AL35" s="4">
+      <c r="AN35" s="4">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45</v>
       </c>
@@ -3918,55 +4062,57 @@
         <v>151</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
         <v>1</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="5"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="4" t="s">
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T36" s="4" t="s">
+      <c r="V36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="4" t="s">
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z36" s="4" t="s">
+      <c r="AB36" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4" t="s">
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
+      <c r="AG36" s="6"/>
       <c r="AH36" s="4"/>
-      <c r="AI36" s="4">
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4">
         <v>39</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AL36" s="4">
         <v>3</v>
       </c>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="4">
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>46</v>
       </c>
@@ -3992,59 +4138,61 @@
         <v>155</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="4" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T37" s="4" t="s">
+      <c r="V37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="4" t="s">
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="4" t="s">
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4" t="s">
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AI37" s="4">
+      <c r="AK37" s="4">
         <v>40</v>
       </c>
-      <c r="AJ37" s="4">
+      <c r="AL37" s="4">
         <v>3</v>
       </c>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="4">
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>47</v>
       </c>
@@ -4070,59 +4218,61 @@
         <v>162</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T38" s="4" t="s">
+      <c r="V38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="4" t="s">
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="4" t="s">
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4" t="s">
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AI38" s="4">
+      <c r="AK38" s="4">
         <v>41</v>
       </c>
-      <c r="AJ38" s="4">
+      <c r="AL38" s="4">
         <v>3</v>
       </c>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="4">
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>48</v>
       </c>
@@ -4147,24 +4297,24 @@
       <c r="H39" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="5"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="P39" s="5"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="4" t="s">
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
@@ -4173,20 +4323,22 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
-      <c r="AE39" s="6"/>
+      <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="4"/>
-      <c r="AI39" s="4">
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4">
         <v>43</v>
       </c>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="7" t="s">
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="AL39" s="4"/>
+      <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>49</v>
       </c>
@@ -4211,28 +4363,28 @@
       <c r="H40" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="4" t="s">
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
@@ -4241,20 +4393,22 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
-      <c r="AE40" s="6"/>
+      <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
+      <c r="AG40" s="6"/>
       <c r="AH40" s="4"/>
-      <c r="AI40" s="4">
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4">
         <v>44</v>
       </c>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="5">
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="5">
         <v>23</v>
       </c>
-      <c r="AL40" s="4"/>
+      <c r="AN40" s="4"/>
     </row>
-    <row r="41" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>50</v>
       </c>
@@ -4279,28 +4433,28 @@
       <c r="H41" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="4" t="s">
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
@@ -4309,20 +4463,22 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
-      <c r="AE41" s="6"/>
+      <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
+      <c r="AG41" s="6"/>
       <c r="AH41" s="4"/>
-      <c r="AI41" s="4">
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4">
         <v>45</v>
       </c>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="5">
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="5">
         <v>24</v>
       </c>
-      <c r="AL41" s="4"/>
+      <c r="AN41" s="4"/>
     </row>
-    <row r="42" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>51</v>
       </c>
@@ -4347,28 +4503,28 @@
       <c r="H42" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="4" t="s">
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
@@ -4377,20 +4533,22 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
-      <c r="AE42" s="6"/>
+      <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
+      <c r="AG42" s="6"/>
       <c r="AH42" s="4"/>
-      <c r="AI42" s="4">
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4">
         <v>46</v>
       </c>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="5">
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="5">
         <v>26</v>
       </c>
-      <c r="AL42" s="4"/>
+      <c r="AN42" s="4"/>
     </row>
-    <row r="43" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>53</v>
       </c>
@@ -4415,28 +4573,28 @@
       <c r="H43" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="4" t="s">
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
@@ -4445,20 +4603,22 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
-      <c r="AE43" s="6"/>
+      <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
+      <c r="AG43" s="6"/>
       <c r="AH43" s="4"/>
-      <c r="AI43" s="4">
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4">
         <v>49</v>
       </c>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="7" t="s">
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AL43" s="4"/>
+      <c r="AN43" s="4"/>
     </row>
-    <row r="44" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>54</v>
       </c>
@@ -4483,28 +4643,28 @@
       <c r="H44" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="4" t="s">
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
@@ -4513,20 +4673,22 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
-      <c r="AE44" s="6"/>
+      <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
+      <c r="AG44" s="6"/>
       <c r="AH44" s="4"/>
-      <c r="AI44" s="4">
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4">
         <v>50</v>
       </c>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="7" t="s">
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="AL44" s="4"/>
+      <c r="AN44" s="4"/>
     </row>
-    <row r="45" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>55</v>
       </c>
@@ -4549,24 +4711,24 @@
       <c r="H45" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="5"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="P45" s="5"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="4" t="s">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
@@ -4575,19 +4737,21 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
-      <c r="AE45" s="6"/>
+      <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
+      <c r="AG45" s="6"/>
       <c r="AH45" s="4"/>
-      <c r="AI45" s="4">
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4">
         <v>904</v>
       </c>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="5"/>
       <c r="AL45" s="4"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -4599,9 +4763,9 @@
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4642,7 +4806,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>197</v>
       </c>
